--- a/biology/Zoologie/Alligatorium/Alligatorium.xlsx
+++ b/biology/Zoologie/Alligatorium/Alligatorium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alligatorium meyeri
-Alligatorium est un genre fossile de petits reptiles Crocodyliformes néosuchiens basaux semi-aquatiques, du clade des Atoposauridae[1],[2],[3].
-Il n'est connu qu'en France, en région Auvergne-Rhône-Alpes, sur le site paléontologique de Cerin dans le département de l'Ain. Ce niveau stratigraphique est daté du Jurassique supérieur (Kimméridgien), soit il y a environ entre 154,8 et 149,2 millions d'années[3].
-Une seule espèce est rattachée au genre : Alligatorium meyeri, décrite par le paléontologue français Paul Gervais en 1871[1],[4].
+Alligatorium est un genre fossile de petits reptiles Crocodyliformes néosuchiens basaux semi-aquatiques, du clade des Atoposauridae.
+Il n'est connu qu'en France, en région Auvergne-Rhône-Alpes, sur le site paléontologique de Cerin dans le département de l'Ain. Ce niveau stratigraphique est daté du Jurassique supérieur (Kimméridgien), soit il y a environ entre 154,8 et 149,2 millions d'années.
+Une seule espèce est rattachée au genre : Alligatorium meyeri, décrite par le paléontologue français Paul Gervais en 1871,.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Anciennes espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alligatorium franconicum, découverte en Allemagne et décrite en 1906 a été reclassée en 2016 comme un néosuchien incertae sedis[3].
-Alligatorium depereti, du Crétacé inférieur d'Espagne, décrite en 1915, a été réattribuée en 1988 à un nouveau genre, qui lui est propre, Montsecosuchus[2], exclu des Atoposauridae en 2016 par Tennant et ses collègues[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alligatorium franconicum, découverte en Allemagne et décrite en 1906 a été reclassée en 2016 comme un néosuchien incertae sedis.
+Alligatorium depereti, du Crétacé inférieur d'Espagne, décrite en 1915, a été réattribuée en 1988 à un nouveau genre, qui lui est propre, Montsecosuchus, exclu des Atoposauridae en 2016 par Tennant et ses collègues.</t>
         </is>
       </c>
     </row>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un Crocodyliformes de petite taille dont le crâne ne mesure que 6,6 centimètres de long[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un Crocodyliformes de petite taille dont le crâne ne mesure que 6,6 centimètres de long. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ci-dessous, établi en 2016 par Tennant et ses collègues, montre la composition du petit clade des Atoposauridae et la position de l'espèce du genre Alligatorium[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous, établi en 2016 par Tennant et ses collègues, montre la composition du petit clade des Atoposauridae et la position de l'espèce du genre Alligatorium :
 </t>
         </is>
       </c>
